--- a/OOH_PBT/OOH_PBT_Issue_Upload_To_Sharepoint/Data/Config.xlsx
+++ b/OOH_PBT/OOH_PBT_Issue_Upload_To_Sharepoint/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\OOH_PBT\OOH_PBT_Issue_Upload_To_Sharepoint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD3A605-25E6-4D2D-A3AC-D44E4614DC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A95DC-DE40-41FC-B7F5-3047234B92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20775" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
     <t>https://insidemedia.sharepoint.com/sites/GMUSA-KineticFinanceAutomation/</t>
   </si>
   <si>
-    <t>Data Source=eussqsvgrmusafinance01.database.windows.net;Initial Catalog=eussqdbgrmusaapoohdev01;User ID=NA_sqlusr_AP_OOH_DEV_01;Password=JFcRxniU2hETyEgCQxM3</t>
-  </si>
-  <si>
     <t>C:\Users\NTMGRM.RPA1\Desktop\OOH_PBT_Exception_Screenshots\</t>
+  </si>
+  <si>
+    <t>Data Source=eussqsvgrmusafinance01.database.windows.net;Initial Catalog=eussqdbgrmusaapooh01;User ID=NA_AP_OOH_DBAUSR_01;Password=n28UxD8NVZAqdFMjBHnd</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -626,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -648,7 +648,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">

--- a/OOH_PBT/OOH_PBT_Issue_Upload_To_Sharepoint/Data/Config.xlsx
+++ b/OOH_PBT/OOH_PBT_Issue_Upload_To_Sharepoint/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\OOH_PBT\OOH_PBT_Issue_Upload_To_Sharepoint\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTMGRM.OOHPBTDIGS9\Documents\UiPath\OOH PBT\OOH_PBT_Issue_Upload_To_Sharepoint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A95DC-DE40-41FC-B7F5-3047234B92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA57CB-F77D-4993-A4B3-ECE1177B6517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20775" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Queue used in the Dispatcher Bot</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>PBTLogFileDate</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Data Source=eussqsvgrmusafinance01.database.windows.net;Initial Catalog=eussqdbgrmusaapooh01;User ID=NA_AP_OOH_DBAUSR_01;Password=n28UxD8NVZAqdFMjBHnd</t>
+  </si>
+  <si>
+    <t>GMUSA_PBTBOT</t>
   </si>
 </sst>
 </file>
@@ -234,18 +234,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -612,51 +612,51 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2776,7 +2776,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2831,7 +2831,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3852,4 +3852,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045A9A53AB2AD7C409EFC96CC55961B83" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="737d8429b8eb9892549b3c27dc155f66">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="649a79cd-06e4-47a3-aac9-21cb806f3675" xmlns:ns3="7f25b792-b2ba-4b5c-8669-b39a27555406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c35880a7ae30656a46222e88cc05a07" ns2:_="" ns3:_="">
+    <xsd:import namespace="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+    <xsd:import namespace="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:Time" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="649a79cd-06e4-47a3-aac9-21cb806f3675" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cb8c6112-a551-416c-b446-07c3fc3d0d42" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Time" ma:index="20" nillable="true" ma:displayName="Time" ma:format="DateTime" ma:internalName="Time">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f25b792-b2ba-4b5c-8669-b39a27555406" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2e954b58-32a8-4cab-baf9-92d5046718f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7f25b792-b2ba-4b5c-8669-b39a27555406">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7f25b792-b2ba-4b5c-8669-b39a27555406" xsi:nil="true"/>
+    <Time xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="649a79cd-06e4-47a3-aac9-21cb806f3675">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AFAC615-89F7-402F-B5D0-CECA8119BBC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC3D049-7A09-4E10-885A-EF65FB168B0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+    <ds:schemaRef ds:uri="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC9F403D-0C6A-4808-B508-2846749C778F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f25b792-b2ba-4b5c-8669-b39a27555406"/>
+    <ds:schemaRef ds:uri="649a79cd-06e4-47a3-aac9-21cb806f3675"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>